--- a/StructureDefinition-cbs-travel-history.xlsx
+++ b/StructureDefinition-cbs-travel-history.xlsx
@@ -1394,7 +1394,7 @@
     <t>travelHistoryAddress</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ecr/StructureDefinition/travel-history-address-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ecr/StructureDefinition/us-ph-address-extension}
 </t>
   </si>
   <si>
